--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>関数は小文字連単語大文字</t>
     <rPh sb="0" eb="2">
@@ -121,6 +121,26 @@
   </si>
   <si>
     <t>____hogehoge = "hogehoge";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティは小文字蓮単語大文字＿</t>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>オオモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge_Hoge{ get{} set{} }</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10011,7 +10031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10061,10 +10081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10095,33 +10115,41 @@
     </row>
     <row r="4" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>関数は小文字連単語大文字</t>
     <rPh sb="0" eb="2">
@@ -143,6 +143,17 @@
     <t>hoge_Hoge{ get{} set{} }</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメントは/**/で囲う</t>
+    <rPh sb="10" eb="11">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*hogehoge*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -6800,16 +6811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>436418</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169718</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>4329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>211282</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>141142</xdr:rowOff>
+      <xdr:rowOff>136813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6818,8 +6829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="436418" y="4329"/>
-          <a:ext cx="16919864" cy="7680613"/>
+          <a:off x="1541318" y="0"/>
+          <a:ext cx="26081182" cy="8518813"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6859,16 +6870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>12245</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6877,8 +6888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="428625"/>
-          <a:ext cx="1714500" cy="847725"/>
+          <a:off x="2053316" y="349704"/>
+          <a:ext cx="2164897" cy="874939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6914,14 +6925,22 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SceneManager</a:t>
+            <a:t>App_Controller</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+SceneInterface nowScene</a:t>
+            <a:t>+SceneInterface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nowScene</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6945,16 +6964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530038</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>34738</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>139513</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>453839</xdr:colOff>
+      <xdr:rowOff>101413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>644339</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164726</xdr:rowOff>
+      <xdr:rowOff>126626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6963,8 +6982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314950" y="307601"/>
-          <a:ext cx="1974477" cy="1033743"/>
+          <a:off x="19922938" y="291913"/>
+          <a:ext cx="1981201" cy="1168213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6994,13 +7013,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>abstract SceneInterface</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+ SceneManager manager</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7063,29 +7075,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530038</xdr:colOff>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>34738</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>165007</xdr:rowOff>
+      <xdr:rowOff>114020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直線コネクタ 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
+          <a:stCxn id="74" idx="3"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2460251" y="824473"/>
-          <a:ext cx="2854699" cy="12887"/>
+        <a:xfrm>
+          <a:off x="8180614" y="817110"/>
+          <a:ext cx="11584481" cy="4481"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7110,16 +7122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>204050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>470750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7128,8 +7140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="896777" y="3000375"/>
-          <a:ext cx="2001982" cy="1069398"/>
+          <a:off x="10833950" y="3176155"/>
+          <a:ext cx="1981200" cy="1173307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7228,16 +7240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63007</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45945</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93314</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474214</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>388845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7246,8 +7258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3594950" y="3007098"/>
-          <a:ext cx="1992813" cy="1069398"/>
+          <a:off x="13504414" y="3182878"/>
+          <a:ext cx="1972031" cy="1173307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7346,16 +7358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>536355</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>460155</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64740</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>193455</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>117255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7364,8 +7376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6708555" y="2949083"/>
-          <a:ext cx="1981200" cy="1059007"/>
+          <a:off x="16652655" y="3154304"/>
+          <a:ext cx="1981200" cy="1173307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7464,16 +7476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>355022</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>278823</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>48084</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>655060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>574098</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7482,8 +7494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10053204" y="2961868"/>
-          <a:ext cx="2001983" cy="1069398"/>
+          <a:off x="21371935" y="2756648"/>
+          <a:ext cx="1990726" cy="1030432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7582,16 +7594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>552247</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>476047</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68050</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209347</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133147</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7600,8 +7612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15099520" y="2986928"/>
-          <a:ext cx="2001982" cy="1064304"/>
+          <a:off x="24898147" y="3162708"/>
+          <a:ext cx="1981200" cy="1168213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7700,16 +7712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145577</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339539</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>167785</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42836</xdr:rowOff>
+      <xdr:rowOff>126626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>514147</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114708</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7721,8 +7733,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10435352" y="-2678232"/>
-          <a:ext cx="1609929" cy="9720390"/>
+          <a:off x="22549852" y="-176187"/>
+          <a:ext cx="1702582" cy="4975208"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7750,16 +7762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>512313</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165951</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145576</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56285</xdr:rowOff>
+      <xdr:rowOff>126626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7771,8 +7783,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3327257" y="-52489"/>
-          <a:ext cx="1623376" cy="4482353"/>
+          <a:off x="15511031" y="-2226354"/>
+          <a:ext cx="1716029" cy="9088989"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7800,16 +7812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434994</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88630</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145577</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63006</xdr:rowOff>
+      <xdr:rowOff>126627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339539</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134879</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7821,8 +7833,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4670690" y="1297666"/>
-          <a:ext cx="1630099" cy="1788764"/>
+          <a:off x="16840609" y="-890052"/>
+          <a:ext cx="1722752" cy="6423109"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7850,16 +7862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>498255</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>155356</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34432</xdr:rowOff>
+      <xdr:rowOff>126626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339539</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106304</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7870,9 +7882,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6218094" y="1468021"/>
-          <a:ext cx="1584207" cy="1377916"/>
+        <a:xfrm rot="5400000">
+          <a:off x="18431308" y="672073"/>
+          <a:ext cx="1694178" cy="3270284"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7900,16 +7912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145576</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339540</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>663287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17776</xdr:rowOff>
+      <xdr:rowOff>126625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>269299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7921,8 +7933,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7924724" y="-167605"/>
-          <a:ext cx="1584869" cy="4674075"/>
+          <a:off x="20980252" y="1369601"/>
+          <a:ext cx="1463209" cy="1310884"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7950,15 +7962,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>599209</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>65809</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7968,8 +7980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="5143500"/>
-          <a:ext cx="2466109" cy="1304059"/>
+          <a:off x="22974300" y="6667500"/>
+          <a:ext cx="2466109" cy="1437409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8030,16 +8042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>431529</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>51954</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88630</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>204355</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8051,8 +8063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4488924" y="4094069"/>
-          <a:ext cx="1106836" cy="992025"/>
+          <a:off x="18193235" y="653379"/>
+          <a:ext cx="2311315" cy="9716925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -8080,16 +8092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>507729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165949</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>204354</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8101,8 +8113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3153183" y="2674283"/>
-          <a:ext cx="1090027" cy="3646699"/>
+          <a:off x="16856933" y="-682922"/>
+          <a:ext cx="2318038" cy="12382805"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -8130,16 +8142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>156476</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>498256</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>204356</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8150,9 +8162,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6042646" y="3409670"/>
-          <a:ext cx="1111878" cy="2154077"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="19755361" y="2215505"/>
+          <a:ext cx="2339889" cy="6564100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8182,16 +8194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>172368</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>204356</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>514148</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8203,8 +8215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10153600" y="-697974"/>
-          <a:ext cx="1108568" cy="10372675"/>
+          <a:off x="23879762" y="4658514"/>
+          <a:ext cx="2336579" cy="1681392"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8234,16 +8246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>108578</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>603878</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>413378</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8252,8 +8264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603878" y="8236377"/>
-          <a:ext cx="16954500" cy="9775398"/>
+          <a:off x="19996778" y="9036477"/>
+          <a:ext cx="16954500" cy="10861248"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8306,16 +8318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196684</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>387184</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214002</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85355</xdr:rowOff>
+      <xdr:rowOff>40327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>404502</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8324,8 +8336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1557398" y="9706841"/>
-          <a:ext cx="2738747" cy="1522764"/>
+          <a:off x="20961184" y="10327327"/>
+          <a:ext cx="2760518" cy="1645228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8396,16 +8408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>538369</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>43069</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:rowOff>51352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8414,8 +8426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6725478" y="9558130"/>
-          <a:ext cx="2435087" cy="1499153"/>
+          <a:off x="26103469" y="10338352"/>
+          <a:ext cx="2428461" cy="1648240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8486,16 +8498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>74541</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>265041</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>150742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>159025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8504,8 +8516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1449454" y="12423912"/>
-          <a:ext cx="2368827" cy="1399761"/>
+          <a:off x="20839041" y="13485742"/>
+          <a:ext cx="2363857" cy="1532283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8631,16 +8643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>144116</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>69572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450573</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>77855</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>334616</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>145772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>641073</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>154055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8649,8 +8661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4268855" y="12418942"/>
-          <a:ext cx="2368827" cy="1399761"/>
+          <a:off x="23651816" y="13480772"/>
+          <a:ext cx="2363857" cy="1532283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8772,16 +8784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>535677</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>63566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>151572</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>71849</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>40377</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>342072</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>148049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8790,8 +8802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10203552" y="11898379"/>
-          <a:ext cx="2378145" cy="1341783"/>
+          <a:off x="29529777" y="13474766"/>
+          <a:ext cx="2359095" cy="1532283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8917,16 +8929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238537</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>81167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>544994</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>89450</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>429037</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>49694</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8935,8 +8947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7113102" y="12430537"/>
-          <a:ext cx="2368827" cy="1399761"/>
+          <a:off x="26489437" y="13492367"/>
+          <a:ext cx="2363857" cy="1532283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9062,16 +9074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>74541</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>75370</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>150742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9083,8 +9095,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4605131" y="9086020"/>
-          <a:ext cx="1366629" cy="5309154"/>
+          <a:off x="23919760" y="10087802"/>
+          <a:ext cx="1499150" cy="5296730"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9112,16 +9124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641074</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>69572</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>144945</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>145773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9133,8 +9145,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6017317" y="10493236"/>
-          <a:ext cx="1361659" cy="2489753"/>
+          <a:off x="25328633" y="11491705"/>
+          <a:ext cx="1494180" cy="2483955"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9164,16 +9176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>48038</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>81167</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>239367</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9185,8 +9197,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7433642" y="11566663"/>
-          <a:ext cx="1373254" cy="354494"/>
+          <a:off x="26741646" y="12562646"/>
+          <a:ext cx="1505775" cy="353666"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9214,16 +9226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>343624</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>63566</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>534124</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9235,8 +9247,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9036069" y="9541823"/>
-          <a:ext cx="1297674" cy="3415437"/>
+          <a:off x="28269425" y="11034866"/>
+          <a:ext cx="1488174" cy="3391625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9264,16 +9276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>205344</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>48083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657102</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>269297</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>395842</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154626</xdr:rowOff>
+      <xdr:rowOff>40327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9284,9 +9296,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4099505" y="2943887"/>
-          <a:ext cx="5590221" cy="7935686"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="19803384" y="6350993"/>
+          <a:ext cx="5254372" cy="126545"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9314,16 +9326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214002</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>31544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>538369</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44075</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>404502</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>43069</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>113472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9335,8 +9347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4296145" y="10468223"/>
-          <a:ext cx="2365438" cy="12531"/>
+          <a:off x="23721702" y="11149941"/>
+          <a:ext cx="2381767" cy="12531"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9365,16 +9377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9383,8 +9395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="14125574"/>
-          <a:ext cx="2143125" cy="1457326"/>
+          <a:off x="22117050" y="15573374"/>
+          <a:ext cx="2143125" cy="1609726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9462,16 +9474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>77855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640245</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>154055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>144945</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9483,8 +9495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3795713" y="13622405"/>
-          <a:ext cx="1645132" cy="503169"/>
+          <a:off x="23188613" y="15013055"/>
+          <a:ext cx="1645132" cy="560319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9512,16 +9524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>564697</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>69397</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>488497</xdr:colOff>
+      <xdr:rowOff>51707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>678997</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>137432</xdr:rowOff>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9530,8 +9542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5327197" y="14494328"/>
-          <a:ext cx="2645229" cy="1740354"/>
+          <a:off x="24758197" y="15482207"/>
+          <a:ext cx="2667000" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9620,16 +9632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>69397</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>564697</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>151719</xdr:rowOff>
+      <xdr:rowOff>37420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9641,8 +9653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="15322323"/>
-          <a:ext cx="498022" cy="42182"/>
+          <a:off x="24260175" y="16378237"/>
+          <a:ext cx="498022" cy="42183"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9719,10 +9731,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>583869</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>151658</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1755865" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -9732,7 +9744,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="15784285"/>
+          <a:off x="25522051" y="15391658"/>
           <a:ext cx="1755865" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9773,6 +9785,442 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>572860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6015717" y="379640"/>
+          <a:ext cx="2164897" cy="874939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Scene_Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+enum state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+void change()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+void changed()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>572860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4218213" y="787174"/>
+          <a:ext cx="1797504" cy="29936"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="角丸四角形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="395287" y="7519988"/>
+          <a:ext cx="14425613" cy="9872662"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>を制御するモジュール郡</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88755</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>60612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88755</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>60612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160443" y="9228425"/>
+          <a:ext cx="3452812" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UI_Controller</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BackGround_Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> bg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Awake()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>202925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763126" y="9142964"/>
+          <a:ext cx="3560487" cy="1775584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BackGround_Controller</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+ void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> changeBG(string  path)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88755</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>29506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5613255" y="10030756"/>
+          <a:ext cx="4149871" cy="31107"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434036</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294594</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>60612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3886849" y="1183142"/>
+          <a:ext cx="3313370" cy="8045283"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10031,7 +10479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10067,8 +10515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10081,10 +10529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10153,6 +10601,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>関数は小文字連単語大文字</t>
     <rPh sb="0" eb="2">
@@ -152,6 +152,37 @@
   </si>
   <si>
     <t>/*hogehoge*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト、コンポーネントの取得はＡｗａｋｅに書く</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Awake(){GameObject.Find();}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のスクリプトへのアクセスはＳｔａｒｔ以降に行う</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Start(){ hoge.init();  }</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10479,7 +10510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10515,7 +10546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="B37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
@@ -10529,13 +10560,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="50.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -10609,6 +10643,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
